--- a/results/mp/logistic/corona/confidence/210/masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -133,121 +130,118 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -608,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.791095890410959</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7945205479452054</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -877,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -895,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6101694915254238</v>
+        <v>0.55</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5490196078431373</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.7857142857142857</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.544973544973545</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7816901408450704</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5232558139534884</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C13">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D13">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5033557046979866</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7641509433962265</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3818181818181818</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3694444444444445</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75625</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3454545454545455</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2727272727272727</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,7 +1642,7 @@
         <v>68</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <v>0.7083333333333334</v>
@@ -1677,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2341269841269841</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1719,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.128686327077748</v>
+        <v>0.08</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1745,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
         <v>27</v>
@@ -1769,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,37 +1771,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01221566975568661</v>
+        <v>0.01127577319587629</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F25">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2345</v>
+        <v>3069</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25">
         <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1827,28 +1821,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01063486948114728</v>
+        <v>0.01096583719949388</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3070</v>
+        <v>2345</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>0.6571428571428571</v>
@@ -1877,37 +1871,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.009817671809256662</v>
+        <v>0.009826860084230228</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="F27">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6441176470588236</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L27">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M27">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1927,37 +1921,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.008699434536755112</v>
+        <v>0.006796116504854369</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="F28">
-        <v>0.6699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2279</v>
+        <v>5115</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.602510460251046</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="M28">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1969,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1977,49 +1971,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007403078121955971</v>
+        <v>0.006229903536977492</v>
       </c>
       <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>0.39</v>
+      </c>
+      <c r="F29">
+        <v>0.61</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4945</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L29">
+        <v>56</v>
+      </c>
+      <c r="M29">
+        <v>56</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>38</v>
-      </c>
-      <c r="D29">
-        <v>70</v>
-      </c>
-      <c r="E29">
-        <v>0.46</v>
-      </c>
-      <c r="F29">
-        <v>0.54</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>5095</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29">
-        <v>0.576271186440678</v>
-      </c>
-      <c r="L29">
-        <v>170</v>
-      </c>
-      <c r="M29">
-        <v>170</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,87 +2021,63 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006035003017501509</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>4941</v>
+        <v>4280</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L30">
+        <v>38</v>
+      </c>
+      <c r="M30">
+        <v>38</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K30">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L30">
-        <v>54</v>
-      </c>
-      <c r="M30">
-        <v>54</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.004642525533890436</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>0.5</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>4288</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K31">
-        <v>0.5617977528089888</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2119,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.54</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2145,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.54</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2171,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2197,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4523809523809524</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2223,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.4509803921568628</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2249,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.3287671232876712</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2275,21 +2245,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.3205128205128205</v>
+        <v>0.3125</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2301,137 +2271,137 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.02838063439065109</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1164</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.009012392039053699</v>
+        <v>0.02418682235195997</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.29</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2639</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.008361204013377926</v>
+        <v>0.009774436090225564</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2372</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K42">
-        <v>0.008237232289950576</v>
+        <v>0.006265664160401002</v>
       </c>
       <c r="L42">
         <v>20</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N42">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O42">
-        <v>0.46</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2408</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="K43">
-        <v>0.006587202007528231</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="O43">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3167</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2439,77 +2409,25 @@
         <v>34</v>
       </c>
       <c r="K44">
-        <v>0.006241466744685001</v>
+        <v>0.004028197381671702</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N44">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="O44">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>5095</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45">
-        <v>0.005034232782923882</v>
-      </c>
-      <c r="L45">
-        <v>25</v>
-      </c>
-      <c r="M45">
-        <v>55</v>
-      </c>
-      <c r="N45">
-        <v>0.45</v>
-      </c>
-      <c r="O45">
-        <v>0.55</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46">
-        <v>0.004642525533890436</v>
-      </c>
-      <c r="L46">
-        <v>20</v>
-      </c>
-      <c r="M46">
-        <v>40</v>
-      </c>
-      <c r="N46">
-        <v>0.5</v>
-      </c>
-      <c r="O46">
-        <v>0.5</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>4288</v>
+        <v>4945</v>
       </c>
     </row>
   </sheetData>
